--- a/Buyer hub/Users/Manual testcases/User final testcases.xlsx
+++ b/Buyer hub/Users/Manual testcases/User final testcases.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Testcases one group\Buyer hub\Users\Manual testcases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Users\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A50573-B63D-485D-8227-45BDE352EA6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D11D92B-E91D-4FC8-B60B-20F908AECA07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -241,9 +241,6 @@
     <t>It gets displayed the Edit user page</t>
   </si>
   <si>
-    <t>It should have                                                                                              1.Outlet : Company and Outlet                                                          2.Basic information : First name, Last name, Job title, Email, Mobile phone, Profile photo                                                3.Get notification when : Order email remain unopened      4.Permissions : Set what the user can do in zeemart                5.Cancel and Save</t>
-  </si>
-  <si>
     <t>It gets displayed the Outlet, Basic information, Get notification, Permissions, Canel and Save</t>
   </si>
   <si>
@@ -594,6 +591,9 @@
   </si>
   <si>
     <t>It displayed the Edit user page</t>
+  </si>
+  <si>
+    <t>It should have                                                                                              1.Outlet : Company and Outlet                                                          2.Basic information : First name, Last name, Job title, Email, Mobile phone by default Autralia numb as +61, Profile photo                                                                                                 3.Get notification when : Order email remain unopened      4.Permissions : Set what the user can do in zeemart                5.Cancel and Save</t>
   </si>
 </sst>
 </file>
@@ -721,12 +721,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -745,20 +745,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1043,8 +1042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1186,13 +1185,13 @@
         <v>18</v>
       </c>
       <c r="D6" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="F6" s="15" t="s">
         <v>71</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>72</v>
       </c>
       <c r="G6" s="10" t="s">
         <v>10</v>
@@ -1214,14 +1213,14 @@
       <c r="E7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="15" t="s">
         <v>28</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1232,312 +1231,312 @@
         <v>18</v>
       </c>
       <c r="D8" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15">
-        <v>8</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15">
-        <v>9</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15">
-        <v>10</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="14" t="s">
+      <c r="E11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="G11" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="15">
-        <v>11</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="14" t="s">
+      <c r="E12" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="G12" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="G12" s="13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="15">
-        <v>12</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="14" t="s">
+      <c r="E13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="G13" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>14</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>16</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15">
-        <v>13</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15">
-        <v>14</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15">
-        <v>15</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15">
-        <v>16</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="14" t="s">
+      <c r="E17" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="F17" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="G17" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>17</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="G17" s="13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="15">
-        <v>17</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="14" t="s">
+      <c r="E18" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="F18" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="G18" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <v>18</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="G18" s="13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="15">
-        <v>18</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="14" t="s">
+      <c r="E19" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="F19" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="G19" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <v>19</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="G19" s="13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="15">
-        <v>19</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="14" t="s">
+      <c r="E20" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="G20" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <v>20</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="F20" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="15">
-        <v>20</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="14" t="s">
+      <c r="E21" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="F21" s="12" t="s">
         <v>68</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>69</v>
       </c>
       <c r="G21" s="13" t="s">
         <v>10</v>
